--- a/BIS232_SCRIPT_OBJECTION_REQUEST/input_data/datapool/OBJECTION_REQUEST.xlsx
+++ b/BIS232_SCRIPT_OBJECTION_REQUEST/input_data/datapool/OBJECTION_REQUEST.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E20217-3B02-4C45-B95B-B115C69B6437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F0C10E-460C-43B9-8BA4-B5BB80B72AF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1056" windowWidth="15360" windowHeight="7332" tabRatio="582" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="379">
   <si>
     <t>Active</t>
   </si>
@@ -1188,14 +1188,17 @@
     <t>2203 fairfax dr</t>
   </si>
   <si>
-    <t>253</t>
+    <t>358</t>
+  </si>
+  <si>
+    <t>999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1288,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D31"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1345,16 +1360,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1368,23 +1380,157 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1695,67 +1841,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1873,65 +1958,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B50D941-9E7D-49EF-85D4-20B0C5C539E4}" name="Table5" displayName="Table5" ref="B1:K7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B50D941-9E7D-49EF-85D4-20B0C5C539E4}" name="Table5" displayName="Table5" ref="B1:K7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="B1:K7" xr:uid="{9ECCDE69-E40D-4163-B6A5-E6B3FB52F5C0}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{CBDB2A5E-5C0B-47F6-A799-AE378374FC02}" name="Full Organization Legal Name" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{AF628F9B-244E-43AD-BBEC-C5D23C81AD8D}" name="Street Address" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{E331060B-B473-452C-BB4C-2F2A0AAB73AC}" name="City" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{0276E142-D728-4A90-8644-0CA4FAF86156}" name="State" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{F684105D-A196-4959-A40B-1ED160A291AB}" name="Zip Code" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{E9E1439C-F013-4849-A83B-BC6E7455FED4}" name="Point of Contact Name" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{C74C9FDD-8E8B-4B0F-B07F-2E312DCCBB33}" name="Phone Number" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{FBF8D0FE-5C12-495C-810A-CD20D4100D29}" name="E-mail Address" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{F76750BC-C735-45CD-8149-F05A653206D5}" name="Web Site Address" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{F8C0F930-DAAE-4BEB-AEE4-7CCE3D66602B}" name="Active" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CBDB2A5E-5C0B-47F6-A799-AE378374FC02}" name="Full Organization Legal Name" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{AF628F9B-244E-43AD-BBEC-C5D23C81AD8D}" name="Street Address" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{E331060B-B473-452C-BB4C-2F2A0AAB73AC}" name="City" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{0276E142-D728-4A90-8644-0CA4FAF86156}" name="State" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{F684105D-A196-4959-A40B-1ED160A291AB}" name="Zip Code" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{E9E1439C-F013-4849-A83B-BC6E7455FED4}" name="Point of Contact Name" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{C74C9FDD-8E8B-4B0F-B07F-2E312DCCBB33}" name="Phone Number" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{FBF8D0FE-5C12-495C-810A-CD20D4100D29}" name="E-mail Address" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{F76750BC-C735-45CD-8149-F05A653206D5}" name="Web Site Address" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{F8C0F930-DAAE-4BEB-AEE4-7CCE3D66602B}" name="Active" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C00CC6D0-AED8-4B50-8440-B7C10D6C50B7}" name="Table4" displayName="Table4" ref="G1:G5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C00CC6D0-AED8-4B50-8440-B7C10D6C50B7}" name="Table4" displayName="Table4" ref="G1:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="G1:G5" xr:uid="{BEF2A08F-EC42-4EA3-B95F-EC8C3A015570}"/>
   <tableColumns count="1">
-    <tableColumn id="17" xr3:uid="{A9BF9B11-8DBE-4789-9BD1-4879D8D39A77}" name="Active"/>
+    <tableColumn id="17" xr3:uid="{A9BF9B11-8DBE-4789-9BD1-4879D8D39A77}" name="Active" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18837768-C9F7-4E2E-A234-3C49EE851E42}" name="Table1" displayName="Table1" ref="G1:G5" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18837768-C9F7-4E2E-A234-3C49EE851E42}" name="Table1" displayName="Table1" ref="G1:G5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="1">
-    <tableColumn id="26" xr3:uid="{954B900D-2AB0-4B19-9176-3C7B61D42BBB}" name="Active"/>
+    <tableColumn id="26" xr3:uid="{954B900D-2AB0-4B19-9176-3C7B61D42BBB}" name="Active" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650EAF1A-DBF8-457D-8987-08024C2AC249}" name="Table2" displayName="Table2" ref="F1:F6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650EAF1A-DBF8-457D-8987-08024C2AC249}" name="Table2" displayName="Table2" ref="F1:F6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="F1:F6" xr:uid="{83E92AFF-20AE-48D4-A5DC-3FC33C56D7BA}"/>
   <tableColumns count="1">
-    <tableColumn id="5" xr3:uid="{01FA5224-A264-4AE2-A1E8-578EA0346DD6}" name="Active" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{01FA5224-A264-4AE2-A1E8-578EA0346DD6}" name="Active" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7FCBF9CA-1F8C-4B37-8C0F-9331F9CFCC5D}" name="Table3" displayName="Table3" ref="B1:I6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Neutral" dataCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7FCBF9CA-1F8C-4B37-8C0F-9331F9CFCC5D}" name="Table3" displayName="Table3" ref="B1:I6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Neutral" dataCellStyle="Neutral">
   <autoFilter ref="B1:I6" xr:uid="{F5EEA5D1-B24E-43E7-B766-62B39E18849A}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{BD1154E5-D376-4BA8-AC9D-24A249216F1A}" name="CompanyName" dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{1580B32A-8525-4648-BE99-5CC5C5017FA2}" name="AuthOfficialName" dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{3E97B929-09D4-4955-8973-D6424C22162D}" name="AuthOfficialTitle" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{1CD9DEB7-C931-4C8F-A71F-BB00889FADA9}" name="PhoneNumber" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{70D24673-76DB-4BCF-B164-3A746791B844}" name="AuthOfficialEmail" dataDxfId="3" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{E704B3EF-1D1C-4E22-91A3-6D5E5B9C0721}" name="POCEmail" dataDxfId="2" dataCellStyle="Neutral"/>
-    <tableColumn id="9" xr3:uid="{69E296DD-D664-4C3A-AEBD-363BE1DF49D2}" name="POCPhoneNumber" dataDxfId="1" dataCellStyle="Neutral"/>
-    <tableColumn id="8" xr3:uid="{188D6899-AFB7-4C2F-9550-5986380A76C1}" name="Active" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BD1154E5-D376-4BA8-AC9D-24A249216F1A}" name="CompanyName" dataDxfId="16" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{1580B32A-8525-4648-BE99-5CC5C5017FA2}" name="AuthOfficialName" dataDxfId="15" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{3E97B929-09D4-4955-8973-D6424C22162D}" name="AuthOfficialTitle" dataDxfId="14" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{1CD9DEB7-C931-4C8F-A71F-BB00889FADA9}" name="PhoneNumber" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{70D24673-76DB-4BCF-B164-3A746791B844}" name="AuthOfficialEmail" dataDxfId="12" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{E704B3EF-1D1C-4E22-91A3-6D5E5B9C0721}" name="POCEmail" dataDxfId="11" dataCellStyle="Neutral"/>
+    <tableColumn id="9" xr3:uid="{69E296DD-D664-4C3A-AEBD-363BE1DF49D2}" name="POCPhoneNumber" dataDxfId="10" dataCellStyle="Neutral"/>
+    <tableColumn id="8" xr3:uid="{188D6899-AFB7-4C2F-9550-5986380A76C1}" name="Active" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2200,10 +2285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6561DE94-E3AB-4C26-84CE-440BF0BDEA94}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2216,7 +2302,7 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>314</v>
       </c>
       <c r="C1" t="s">
@@ -2227,18 +2313,18 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>350</v>
+      <c r="B2" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>350</v>
       </c>
       <c r="C3" t="b">
@@ -2249,18 +2335,18 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>350</v>
+      <c r="B4" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>350</v>
       </c>
       <c r="C5" t="b">
@@ -2271,7 +2357,7 @@
       <c r="A6" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>350</v>
       </c>
       <c r="C6" t="b">
@@ -2285,18 +2371,20 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E063A7-C321-498C-AB7A-8B921DAD62CB}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,34 +2405,34 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2352,18 +2440,18 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="b">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2371,34 +2459,32 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="10" t="b">
+      <c r="K3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2406,24 +2492,24 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="10" t="b">
+      <c r="K4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2431,34 +2517,34 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="10" t="b">
+      <c r="K5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2466,50 +2552,50 @@
       <c r="A6" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="K6" s="10" t="b">
+      <c r="K6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2533,13 +2619,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDF6C06-83F3-41E7-8AF0-9CE3125477FE}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,101 +2638,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" t="b">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2665,13 +2752,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,117 +2771,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2816,13 +2904,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2B0A54-C8B7-4DE9-83A1-D8B079339484}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,19 +2927,19 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2862,7 +2951,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="b">
+      <c r="F2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2882,7 +2971,7 @@
       <c r="E3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="F3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2898,7 +2987,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="b">
+      <c r="F4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2918,7 +3007,7 @@
       <c r="E5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F5" s="1" t="b">
+      <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2936,7 +3025,7 @@
       <c r="E6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F6" s="1" t="b">
+      <c r="F6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2956,13 +3045,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E335BF1-D685-43ED-A123-7112467278F5}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,28 +3070,28 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3009,14 +3099,14 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="b">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3024,28 +3114,28 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="I3" s="12" t="b">
+      <c r="I3" s="11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3053,24 +3143,24 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="12" t="b">
+      <c r="I4" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3078,26 +3168,26 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="I5" s="12" t="b">
+      <c r="I5" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3105,26 +3195,26 @@
       <c r="A6" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="12" t="b">
+      <c r="H6" s="19"/>
+      <c r="I6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3147,6 +3237,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3179,13 +3270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
@@ -3208,13 +3299,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -3237,13 +3328,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
@@ -3266,10 +3357,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3289,10 +3380,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
@@ -3309,10 +3400,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3329,10 +3420,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
@@ -3343,10 +3434,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
@@ -3354,10 +3445,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
@@ -3365,10 +3456,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
@@ -3376,10 +3467,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
@@ -3387,10 +3478,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" t="s">
@@ -3398,10 +3489,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H13" t="s">
@@ -3409,10 +3500,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H14" t="s">
@@ -3420,10 +3511,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H15" t="s">
@@ -3431,10 +3522,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
@@ -3442,1035 +3533,1035 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="6" t="s">
         <v>287</v>
       </c>
     </row>
